--- a/record-Karis.xlsx
+++ b/record-Karis.xlsx
@@ -495,7 +495,7 @@
   <dimension ref="A1:I458"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
@@ -565,22 +565,22 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>2024-07-31</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="H2" s="7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I2" s="8" t="inlineStr">
+        <is>
           <t>2024-07-28</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H2" s="7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="I2" s="8" t="inlineStr">
-        <is>
-          <t>2024-07-27</t>
         </is>
       </c>
     </row>
@@ -602,12 +602,12 @@
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-31</t>
         </is>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -629,12 +629,12 @@
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-31</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -660,12 +660,12 @@
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-31</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -688,12 +688,12 @@
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-31</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -716,12 +716,12 @@
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -750,12 +750,12 @@
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -780,12 +780,12 @@
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -816,12 +816,12 @@
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -843,12 +843,12 @@
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-30</t>
         </is>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -874,12 +874,12 @@
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -909,12 +909,12 @@
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -938,12 +938,12 @@
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -967,12 +967,12 @@
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -994,12 +994,12 @@
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1020,12 +1020,12 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E17" s="3" t="inlineStr">
@@ -1056,12 +1056,12 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1097,12 +1097,12 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1129,12 +1129,12 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1156,12 +1156,12 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
@@ -1187,12 +1187,12 @@
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
@@ -1214,12 +1214,12 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -1241,12 +1241,12 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
@@ -1312,12 +1312,12 @@
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
@@ -1374,12 +1374,12 @@
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -1401,12 +1401,12 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1428,12 +1428,12 @@
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -1486,12 +1486,12 @@
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1513,12 +1513,12 @@
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
@@ -1540,12 +1540,12 @@
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>2024-07-27</t>
+          <t>2024-07-28</t>
         </is>
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>2024-07-28</t>
+          <t>2024-07-29</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
@@ -1568,9 +1568,21 @@
 uncovered, uncovering, uncovers</t>
         </is>
       </c>
-      <c r="C35" s="3" t="n"/>
-      <c r="D35" s="3" t="n"/>
-      <c r="E35" s="3" t="n"/>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="14.25" customHeight="1">
       <c r="A36" s="5" t="inlineStr">
@@ -1583,9 +1595,21 @@
           <t>充满，有很多的</t>
         </is>
       </c>
-      <c r="C36" s="3" t="n"/>
-      <c r="D36" s="3" t="n"/>
-      <c r="E36" s="3" t="n"/>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" s="5" t="inlineStr">
@@ -1598,9 +1622,21 @@
           <t>开始争吵</t>
         </is>
       </c>
-      <c r="C37" s="3" t="n"/>
-      <c r="D37" s="3" t="n"/>
-      <c r="E37" s="3" t="n"/>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" s="5" t="inlineStr">
@@ -1615,9 +1651,21 @@
 floristry</t>
         </is>
       </c>
-      <c r="C38" s="3" t="n"/>
-      <c r="D38" s="3" t="n"/>
-      <c r="E38" s="3" t="n"/>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" s="5" t="inlineStr">
@@ -1630,9 +1678,21 @@
           <t>adj. 触觉的</t>
         </is>
       </c>
-      <c r="C39" s="3" t="n"/>
-      <c r="D39" s="3" t="n"/>
-      <c r="E39" s="3" t="n"/>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" s="5" t="inlineStr">
@@ -1649,9 +1709,21 @@
 pacifiable</t>
         </is>
       </c>
-      <c r="C40" s="3" t="n"/>
-      <c r="D40" s="3" t="n"/>
-      <c r="E40" s="3" t="n"/>
+      <c r="C40" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D40" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" s="5" t="inlineStr">
@@ -1664,9 +1736,21 @@
           <t>乱动；摆弄；玩弄；弄虚作假</t>
         </is>
       </c>
-      <c r="C41" s="3" t="n"/>
-      <c r="D41" s="3" t="n"/>
-      <c r="E41" s="3" t="n"/>
+      <c r="C41" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E41" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" s="5" t="inlineStr">
@@ -1680,9 +1764,21 @@
 - 确实地，真正地</t>
         </is>
       </c>
-      <c r="C42" s="3" t="n"/>
-      <c r="D42" s="3" t="n"/>
-      <c r="E42" s="3" t="n"/>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" s="5" t="inlineStr">
@@ -1706,9 +1802,21 @@
 scentless</t>
         </is>
       </c>
-      <c r="C43" s="3" t="n"/>
-      <c r="D43" s="3" t="n"/>
-      <c r="E43" s="3" t="n"/>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E43" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="44" ht="14.25" customHeight="1">
       <c r="A44" s="5" t="inlineStr">
@@ -1727,9 +1835,21 @@
 assaulter</t>
         </is>
       </c>
-      <c r="C44" s="3" t="n"/>
-      <c r="D44" s="3" t="n"/>
-      <c r="E44" s="3" t="n"/>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D44" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="45" ht="14.25" customHeight="1">
       <c r="A45" s="5" t="inlineStr">
@@ -1742,9 +1862,21 @@
           <t>adj. (尤指妇女)体型富于曲线美的</t>
         </is>
       </c>
-      <c r="C45" s="3" t="n"/>
-      <c r="D45" s="3" t="n"/>
-      <c r="E45" s="3" t="n"/>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E45" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" s="5" t="inlineStr">
@@ -1757,9 +1889,21 @@
           <t>特别突出的，格外显著的</t>
         </is>
       </c>
-      <c r="C46" s="3" t="n"/>
-      <c r="D46" s="3" t="n"/>
-      <c r="E46" s="3" t="n"/>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="47" ht="14.25" customHeight="1">
       <c r="A47" s="5" t="inlineStr">
@@ -1776,9 +1920,21 @@
 strangler</t>
         </is>
       </c>
-      <c r="C47" s="3" t="n"/>
-      <c r="D47" s="3" t="n"/>
-      <c r="E47" s="3" t="n"/>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D47" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E47" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" s="5" t="inlineStr">
@@ -1800,9 +1956,21 @@
 savageness</t>
         </is>
       </c>
-      <c r="C48" s="3" t="n"/>
-      <c r="D48" s="3" t="n"/>
-      <c r="E48" s="3" t="n"/>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" s="5" t="inlineStr">
@@ -1815,9 +1983,21 @@
           <t>adv. 共有</t>
         </is>
       </c>
-      <c r="C49" s="3" t="n"/>
-      <c r="D49" s="3" t="n"/>
-      <c r="E49" s="3" t="n"/>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E49" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" s="5" t="inlineStr">
@@ -1831,9 +2011,21 @@
 - （尤指狩猎或战争中获得的）纪念品，战利品</t>
         </is>
       </c>
-      <c r="C50" s="3" t="n"/>
-      <c r="D50" s="3" t="n"/>
-      <c r="E50" s="3" t="n"/>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" s="5" t="inlineStr">
@@ -1851,9 +2043,21 @@
 swabsswobs</t>
         </is>
       </c>
-      <c r="C51" s="3" t="n"/>
-      <c r="D51" s="3" t="n"/>
-      <c r="E51" s="3" t="n"/>
+      <c r="C51" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D51" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E51" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" s="5" t="inlineStr">
@@ -1866,9 +2070,21 @@
           <t>n. 唾液；涎</t>
         </is>
       </c>
-      <c r="C52" s="3" t="n"/>
-      <c r="D52" s="3" t="n"/>
-      <c r="E52" s="3" t="n"/>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" s="5" t="inlineStr">
@@ -1881,9 +2097,21 @@
           <t>n. 家庭杂务；日常的零星事务；讨厌的或累人的工作</t>
         </is>
       </c>
-      <c r="C53" s="3" t="n"/>
-      <c r="D53" s="3" t="n"/>
-      <c r="E53" s="3" t="n"/>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" s="5" t="inlineStr">
@@ -1901,9 +2129,21 @@
 soberly</t>
         </is>
       </c>
-      <c r="C54" s="3" t="n"/>
-      <c r="D54" s="3" t="n"/>
-      <c r="E54" s="3" t="n"/>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" s="5" t="inlineStr">
@@ -1921,9 +2161,21 @@
 v. 完成, 结束（业务协定, 会议等）</t>
         </is>
       </c>
-      <c r="C55" s="3" t="n"/>
-      <c r="D55" s="3" t="n"/>
-      <c r="E55" s="3" t="n"/>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E55" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="56" ht="14.25" customHeight="1">
       <c r="A56" s="5" t="inlineStr">
@@ -1941,9 +2193,21 @@
 tranced, trancing, trances</t>
         </is>
       </c>
-      <c r="C56" s="3" t="n"/>
-      <c r="D56" s="3" t="n"/>
-      <c r="E56" s="3" t="n"/>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="57" ht="14.25" customHeight="1">
       <c r="A57" s="5" t="inlineStr">
@@ -1964,9 +2228,21 @@
 sobbingly</t>
         </is>
       </c>
-      <c r="C57" s="3" t="n"/>
-      <c r="D57" s="3" t="n"/>
-      <c r="E57" s="3" t="n"/>
+      <c r="C57" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D57" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E57" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" s="5" t="inlineStr">
@@ -1980,9 +2256,21 @@
 Atticadj. （古希腊）雅典(Athens)的</t>
         </is>
       </c>
-      <c r="C58" s="3" t="n"/>
-      <c r="D58" s="3" t="n"/>
-      <c r="E58" s="3" t="n"/>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" s="5" t="inlineStr">
@@ -1998,9 +2286,21 @@
 nattered, nattering, natters</t>
         </is>
       </c>
-      <c r="C59" s="3" t="n"/>
-      <c r="D59" s="3" t="n"/>
-      <c r="E59" s="3" t="n"/>
+      <c r="C59" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D59" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E59" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" s="5" t="inlineStr">
@@ -2017,9 +2317,21 @@
 comprisable</t>
         </is>
       </c>
-      <c r="C60" s="3" t="n"/>
-      <c r="D60" s="3" t="n"/>
-      <c r="E60" s="3" t="n"/>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" s="5" t="inlineStr">
@@ -2034,9 +2346,21 @@
 viscousness</t>
         </is>
       </c>
-      <c r="C61" s="3" t="n"/>
-      <c r="D61" s="3" t="n"/>
-      <c r="E61" s="3" t="n"/>
+      <c r="C61" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-28</t>
+        </is>
+      </c>
+      <c r="D61" s="3" t="inlineStr">
+        <is>
+          <t>2024-07-29</t>
+        </is>
+      </c>
+      <c r="E61" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" s="5" t="inlineStr">
